--- a/imza.xlsx
+++ b/imza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levent Aydın\Desktop\Faturalar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E57F72-6688-4205-A430-EAD4A0D0975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67C1B7-E18C-49CA-B917-E2B9333390D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="3945" windowWidth="15465" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Gerçekleştirme Görevlisi</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Harcama Yetkilisi</t>
+  </si>
+  <si>
+    <t>Burcu TANRIVERDİ YILMAZ</t>
+  </si>
+  <si>
+    <t>Emrullah ÇOLAK</t>
   </si>
 </sst>
 </file>
@@ -467,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,23 +515,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16A52B52-35B2-480D-BAB9-2C06BB0C3C48}">
-          <x14:formula1>
-            <xm:f>Sayfa2!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{656C6208-3009-490A-8C96-188F663C3ECD}">
-          <x14:formula1>
-            <xm:f>Sayfa2!$B$1:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A851A145-A1C1-4AFD-B445-414CDFBA7625}">
           <x14:formula1>
             <xm:f>Sayfa2!$C$1:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>A3:B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{656C6208-3009-490A-8C96-188F663C3ECD}">
+          <x14:formula1>
+            <xm:f>Sayfa2!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16A52B52-35B2-480D-BAB9-2C06BB0C3C48}">
+          <x14:formula1>
+            <xm:f>Sayfa2!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -561,7 +567,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -572,10 +578,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -583,7 +589,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -591,18 +600,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>

--- a/imza.xlsx
+++ b/imza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D67C1B7-E18C-49CA-B917-E2B9333390D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9174C4F-8A7E-4AB6-8260-9B3F81B01A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3945" windowWidth="15465" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/imza.xlsx
+++ b/imza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9174C4F-8A7E-4AB6-8260-9B3F81B01A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D77918-2CFE-4246-8BDE-C1CA1FFF68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/imza.xlsx
+++ b/imza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D77918-2CFE-4246-8BDE-C1CA1FFF68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B60603E-1A04-4C21-8A08-3D2B90B8F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/imza.xlsx
+++ b/imza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B60603E-1A04-4C21-8A08-3D2B90B8F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1DCC5-3029-44C1-8E81-92F7464619C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/imza.xlsx
+++ b/imza.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vsCode\mySplit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1DCC5-3029-44C1-8E81-92F7464619C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF8F4C-A93C-466B-8D9B-8A245BC1D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
